--- a/pythonshinyproject/dashboard/data/Scenarios Database.xlsx
+++ b/pythonshinyproject/dashboard/data/Scenarios Database.xlsx
@@ -448,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I92"/>
+  <dimension ref="A1:I68"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
       <selection activeCell="K70" sqref="K70"/>
@@ -1818,437 +1818,6 @@
     </row>
     <row r="68">
       <c r="D68" s="9" t="n"/>
-    </row>
-    <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>Activity</t>
-        </is>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>S5</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>comment</t>
-        </is>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>test</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>location</t>
-        </is>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>CA-QC</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>production amount</t>
-        </is>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>unit</t>
-        </is>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>tonne</t>
-        </is>
-      </c>
-    </row>
-    <row r="74"/>
-    <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>Exchanges</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>reference product</t>
-        </is>
-      </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>unit</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>amount</t>
-        </is>
-      </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>location</t>
-        </is>
-      </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>database</t>
-        </is>
-      </c>
-      <c r="G76" t="inlineStr">
-        <is>
-          <t>type</t>
-        </is>
-      </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>categories</t>
-        </is>
-      </c>
-      <c r="I76" t="inlineStr">
-        <is>
-          <t>comment</t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>S5</t>
-        </is>
-      </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>OFMSW</t>
-        </is>
-      </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>tonne</t>
-        </is>
-      </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>CA-QC</t>
-        </is>
-      </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>Scenarios</t>
-        </is>
-      </c>
-      <c r="G77" t="inlineStr">
-        <is>
-          <t>production</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>Closed-tunnel Composter</t>
-        </is>
-      </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>OFMSW</t>
-        </is>
-      </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>tonne</t>
-        </is>
-      </c>
-      <c r="D78" t="n">
-        <v>1</v>
-      </c>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>CA-QC</t>
-        </is>
-      </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>OWM Facilities</t>
-        </is>
-      </c>
-      <c r="G78" t="inlineStr">
-        <is>
-          <t>technosphere</t>
-        </is>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="inlineStr">
-        <is>
-          <t>Activity</t>
-        </is>
-      </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>S4</t>
-        </is>
-      </c>
-      <c r="C83" t="inlineStr"/>
-      <c r="D83" t="inlineStr"/>
-      <c r="E83" t="inlineStr"/>
-      <c r="F83" t="inlineStr"/>
-      <c r="G83" t="inlineStr"/>
-      <c r="H83" t="inlineStr"/>
-      <c r="I83" t="inlineStr"/>
-    </row>
-    <row r="84">
-      <c r="A84" t="inlineStr">
-        <is>
-          <t>comment</t>
-        </is>
-      </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>test</t>
-        </is>
-      </c>
-      <c r="C84" t="inlineStr"/>
-      <c r="D84" t="inlineStr"/>
-      <c r="E84" t="inlineStr"/>
-      <c r="F84" t="inlineStr"/>
-      <c r="G84" t="inlineStr"/>
-      <c r="H84" t="inlineStr"/>
-      <c r="I84" t="inlineStr"/>
-    </row>
-    <row r="85">
-      <c r="A85" t="inlineStr">
-        <is>
-          <t>location</t>
-        </is>
-      </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>CA-QC</t>
-        </is>
-      </c>
-      <c r="C85" t="inlineStr"/>
-      <c r="D85" t="inlineStr"/>
-      <c r="E85" t="inlineStr"/>
-      <c r="F85" t="inlineStr"/>
-      <c r="G85" t="inlineStr"/>
-      <c r="H85" t="inlineStr"/>
-      <c r="I85" t="inlineStr"/>
-    </row>
-    <row r="86">
-      <c r="A86" t="inlineStr">
-        <is>
-          <t>production amount</t>
-        </is>
-      </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C86" t="inlineStr"/>
-      <c r="D86" t="inlineStr"/>
-      <c r="E86" t="inlineStr"/>
-      <c r="F86" t="inlineStr"/>
-      <c r="G86" t="inlineStr"/>
-      <c r="H86" t="inlineStr"/>
-      <c r="I86" t="inlineStr"/>
-    </row>
-    <row r="87">
-      <c r="A87" t="inlineStr">
-        <is>
-          <t>unit</t>
-        </is>
-      </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>tonne</t>
-        </is>
-      </c>
-      <c r="C87" t="inlineStr"/>
-      <c r="D87" t="inlineStr"/>
-      <c r="E87" t="inlineStr"/>
-      <c r="F87" t="inlineStr"/>
-      <c r="G87" t="inlineStr"/>
-      <c r="H87" t="inlineStr"/>
-      <c r="I87" t="inlineStr"/>
-    </row>
-    <row r="88">
-      <c r="A88" t="inlineStr"/>
-      <c r="B88" t="inlineStr"/>
-      <c r="C88" t="inlineStr"/>
-      <c r="D88" t="inlineStr"/>
-      <c r="E88" t="inlineStr"/>
-      <c r="F88" t="inlineStr"/>
-      <c r="G88" t="inlineStr"/>
-      <c r="H88" t="inlineStr"/>
-      <c r="I88" t="inlineStr"/>
-    </row>
-    <row r="89">
-      <c r="A89" t="inlineStr">
-        <is>
-          <t>Exchanges</t>
-        </is>
-      </c>
-      <c r="B89" t="inlineStr"/>
-      <c r="C89" t="inlineStr"/>
-      <c r="D89" t="inlineStr"/>
-      <c r="E89" t="inlineStr"/>
-      <c r="F89" t="inlineStr"/>
-      <c r="G89" t="inlineStr"/>
-      <c r="H89" t="inlineStr"/>
-      <c r="I89" t="inlineStr"/>
-    </row>
-    <row r="90">
-      <c r="A90" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>reference product</t>
-        </is>
-      </c>
-      <c r="C90" t="inlineStr">
-        <is>
-          <t>unit</t>
-        </is>
-      </c>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t>amount</t>
-        </is>
-      </c>
-      <c r="E90" t="inlineStr">
-        <is>
-          <t>location</t>
-        </is>
-      </c>
-      <c r="F90" t="inlineStr">
-        <is>
-          <t>database</t>
-        </is>
-      </c>
-      <c r="G90" t="inlineStr">
-        <is>
-          <t>type</t>
-        </is>
-      </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>categories</t>
-        </is>
-      </c>
-      <c r="I90" t="inlineStr">
-        <is>
-          <t>comment</t>
-        </is>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="inlineStr">
-        <is>
-          <t>S4</t>
-        </is>
-      </c>
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>OFMSW</t>
-        </is>
-      </c>
-      <c r="C91" t="inlineStr">
-        <is>
-          <t>tonne</t>
-        </is>
-      </c>
-      <c r="D91" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E91" t="inlineStr">
-        <is>
-          <t>CA-QC</t>
-        </is>
-      </c>
-      <c r="F91" t="inlineStr">
-        <is>
-          <t>Scenarios</t>
-        </is>
-      </c>
-      <c r="G91" t="inlineStr">
-        <is>
-          <t>production</t>
-        </is>
-      </c>
-      <c r="H91" t="inlineStr"/>
-      <c r="I91" t="inlineStr"/>
-    </row>
-    <row r="92">
-      <c r="A92" t="inlineStr">
-        <is>
-          <t>AD</t>
-        </is>
-      </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>OFMSW</t>
-        </is>
-      </c>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>tonne</t>
-        </is>
-      </c>
-      <c r="D92" t="n">
-        <v>1</v>
-      </c>
-      <c r="E92" t="inlineStr">
-        <is>
-          <t>CA-QC</t>
-        </is>
-      </c>
-      <c r="F92" t="inlineStr">
-        <is>
-          <t>OWM Facilities</t>
-        </is>
-      </c>
-      <c r="G92" t="inlineStr">
-        <is>
-          <t>technosphere</t>
-        </is>
-      </c>
-      <c r="H92" t="inlineStr"/>
-      <c r="I92" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
